--- a/fechamento_2021/fechamento_outubro/SemDataOutubro.xlsx
+++ b/fechamento_2021/fechamento_outubro/SemDataOutubro.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\UiPath\rpa_esus_edge\fechamento_2021\fechamento_outubro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0758A51C-8A3F-4C52-88F3-6725DF6824A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C6214B09-0472-4EDB-A88C-8FA4F3A45F87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$BI$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="187">
   <si>
     <t>MELISSA PEREIRA CAVALCANTE</t>
   </si>
@@ -309,12 +306,297 @@
   </si>
   <si>
     <t>CONF. CRIT. CLÍNICO</t>
+  </si>
+  <si>
+    <t>GABRIEL DE OLIVEIRA ANDRADE MORAES</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Febre</t>
+  </si>
+  <si>
+    <t>TESTE RÁPIDO - ANTÍG</t>
+  </si>
+  <si>
+    <t>REGINA ALVES LEITE</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre</t>
+  </si>
+  <si>
+    <t>ANTENOR FERNANDES DA COSTA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>JOSE ROMILDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>KARIN CRISTINA KRAMPER SANTOS</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>KAROLINE TANSO VIVEIROS</t>
+  </si>
+  <si>
+    <t>BEATRIZ LIMA BECHTOLD</t>
+  </si>
+  <si>
+    <t>Coriza, Outros, Tosse</t>
+  </si>
+  <si>
+    <t>ANTONIO JOSE DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre, Dispneia, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>NÃO DETECTADO</t>
+  </si>
+  <si>
+    <t>CONF. LABOR.</t>
+  </si>
+  <si>
+    <t>CLAUDIA VANEZA PEREIRA LIMA CAVALCANTE</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>IVANILDES RODRIGUES</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>ROSIMEIRE OLIVEIRA SANTOS PEREIRA</t>
+  </si>
+  <si>
+    <t>DAYANA SILVA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ADLENE DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>GABRIEL AZEVEDO WOLFF</t>
+  </si>
+  <si>
+    <t>Coletado</t>
+  </si>
+  <si>
+    <t>JULLIA VITORIA SALDANHA E SILVA</t>
+  </si>
+  <si>
+    <t>Tosse, Febre</t>
+  </si>
+  <si>
+    <t>ARMANDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Tosse, Dispneia, Febre</t>
+  </si>
+  <si>
+    <t>BIANCA PAZ JUSTINO</t>
+  </si>
+  <si>
+    <t>Disturbios Olfativos, Disturbios Gustativos, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>Confirmado Clínico-Epidemiológic</t>
+  </si>
+  <si>
+    <t>JORDIR GABRIEL MOURA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca, Tosse, Dor de Garg</t>
+  </si>
+  <si>
+    <t>GAEL FELIPE COSTA VALENTIM</t>
+  </si>
+  <si>
+    <t>GABRIELA DA SILVA MOREIRA</t>
+  </si>
+  <si>
+    <t>MARIA HELENA TOBIAS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>MANUELLA VITORIA DA SILVA</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre, Outros</t>
+  </si>
+  <si>
+    <t>GISLAINE MONTELES GONCALVES PEREIRA</t>
+  </si>
+  <si>
+    <t>DETECTADO</t>
+  </si>
+  <si>
+    <t>LEILA BARBOSA OLIVA</t>
+  </si>
+  <si>
+    <t>Tosse, Outros, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>ELISIANA GONCALVES</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>MARIA JOSE SILVA SANTOS</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Tosse</t>
+  </si>
+  <si>
+    <t>MANUELA VIEIRA MARCHI</t>
+  </si>
+  <si>
+    <t>GISELI ALVES CEZAR</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Febre, Outros, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>IARA PRAVALAO</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>TEREZA APARECIDA DE SOUZA</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Garganta, Coriza</t>
+  </si>
+  <si>
+    <t>YURI MIGUEL MIRANDA BARBOSA</t>
+  </si>
+  <si>
+    <t>Febre, Coriza</t>
+  </si>
+  <si>
+    <t>CRISTIANE DE SOUZA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>DOROTI APARECIDA RODRIGUES</t>
+  </si>
+  <si>
+    <t>REGINALDO FELICIO DA SILVA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>THAIS DA SILVA GOMES</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>DENIS APARECIDO CASTRO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>TIAGO HARUO YOSHIMURA</t>
+  </si>
+  <si>
+    <t>ANA CECILIA DE CARVALHO LEITE</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>BRUNA NATALIA DA CONCEICAO MAZINE</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>Síndrome Gripal Não Especificada</t>
+  </si>
+  <si>
+    <t>DAVI MIGUEL MOREIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Coriza</t>
+  </si>
+  <si>
+    <t>BRUNO HENRIQUE REIS FERNANDES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Tosse, Coriza</t>
+  </si>
+  <si>
+    <t>LETICIA PALUMBO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>KAREN RODRIGUES FONTENELE DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Tosse</t>
+  </si>
+  <si>
+    <t>JESSICA DE FRANCA SANTOS</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Outros</t>
+  </si>
+  <si>
+    <t>ANA FLAVIA DE LIMA</t>
+  </si>
+  <si>
+    <t>Febre, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>MIGUEL MARTINS DE SENA SOUZA</t>
+  </si>
+  <si>
+    <t>MILENY ALVES DA SILVA</t>
+  </si>
+  <si>
+    <t>Coriza, Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca, Tosse, Febre, Disp</t>
+  </si>
+  <si>
+    <t>ADRIANA MARIA DA SILVA</t>
+  </si>
+  <si>
+    <t>Disturbios Olfativos, Tosse, Dispneia</t>
+  </si>
+  <si>
+    <t>SUZANA CELY INOCENCIO FIRMINO</t>
+  </si>
+  <si>
+    <t>Disturbios Olfativos, Disturbios Gustativos, Tosse, Outros</t>
+  </si>
+  <si>
+    <t>LARISSA CRISTINA SILVA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Coriza, Febre, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>RODRIGO GOMES FIUZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coriza, Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca, Tosse, Febre, Dor </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -484,7 +766,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -678,40 +960,83 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046CA650-5349-470D-91B8-9DD39DA8B7C4}">
-  <dimension ref="A1:BI8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
@@ -1202,7 +1527,2456 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3521103206627</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44487</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="2">
+        <v>37804</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44485</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="Y9" s="3"/>
+      <c r="AB9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AH9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3521103207743</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44487</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15735</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44482</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="Y10" s="3"/>
+      <c r="AB10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AH10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3521103362441</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44488</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="2">
+        <v>19894</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="Y11" s="3"/>
+      <c r="AB11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AH11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3521104075102</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44496</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="2">
+        <v>20757</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44245</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="Y12" s="3"/>
+      <c r="AB12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AH12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3521104152962</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44497</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30069</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44217</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="Y13" s="3"/>
+      <c r="AB13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AH13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3521104179355</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44497</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2">
+        <v>33200</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44291</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="Y14" s="3"/>
+      <c r="AB14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AH14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3521102079739</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44471</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43162</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44467</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="Y15" s="3"/>
+      <c r="AB15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AL15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3521102129560</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44473</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20475</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44466</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16">
+        <v>2102716149</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44473</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="Y16" s="3"/>
+      <c r="AB16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AL16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3521102180471</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44473</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="2">
+        <v>25673</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="Y17" s="3"/>
+      <c r="AB17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AL17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3521102362167</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44475</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="2">
+        <v>31258</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44471</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="Y18" s="3"/>
+      <c r="AB18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AL18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3521102396102</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44475</v>
+      </c>
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2">
+        <v>24208</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44466</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" t="s">
+        <v>81</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="5"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="Y19" s="3"/>
+      <c r="AB19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AL19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3521102405618</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44475</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="2">
+        <v>30785</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="Y20" s="3"/>
+      <c r="AB20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AL20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3521102422565</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44475</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="2">
+        <v>28857</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44472</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="5"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="Y21" s="3"/>
+      <c r="AB21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AL21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3521102450255</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44475</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="2">
+        <v>36382</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44474</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22">
+        <v>2102706876</v>
+      </c>
+      <c r="H22" s="2">
+        <v>44477</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" t="s">
+        <v>81</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="5"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="Y22" s="3"/>
+      <c r="AB22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AL22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>44476</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>117</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3521102534260</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44476</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="2">
+        <v>38981</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44470</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23">
+        <v>2102715622</v>
+      </c>
+      <c r="H23" s="2">
+        <v>44477</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="5"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="Y23" s="3"/>
+      <c r="AB23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AL23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3521102566865</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44477</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2">
+        <v>21445</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44474</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24">
+        <v>2102715668</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44477</v>
+      </c>
+      <c r="I24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="5"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="Y24" s="3"/>
+      <c r="AB24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AL24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3521102715460</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44479</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="2">
+        <v>35136</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44477</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="5"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="Y25" s="3"/>
+      <c r="AB25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AL25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF25" s="2">
+        <v>44503</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3521102835090</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44482</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="2">
+        <v>36433</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44481</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="Y26" s="3"/>
+      <c r="AB26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AL26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF26" s="2">
+        <v>44503</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3521102913389</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44482</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="Y27" s="3"/>
+      <c r="AB27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AL27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3521102914838</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44482</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43060</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44480</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="5"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="Y28" s="3"/>
+      <c r="AB28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AL28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3521102916119</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44482</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="2">
+        <v>23385</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44475</v>
+      </c>
+      <c r="F29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="5"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="Y29" s="3"/>
+      <c r="AB29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AL29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3521102918479</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44482</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43743</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44478</v>
+      </c>
+      <c r="F30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L30" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="Y30" s="3"/>
+      <c r="AB30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AL30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>3521103050859</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44484</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="2">
+        <v>31602</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44477</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31">
+        <v>2102538339</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44484</v>
+      </c>
+      <c r="I31" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" t="s">
+        <v>81</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="5"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="Y31" s="3"/>
+      <c r="AB31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AL31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH31" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3521103070973</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44484</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="2">
+        <v>21397</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44182</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="5"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="Y32" s="3"/>
+      <c r="AB32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AL32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>3521103076513</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44484</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="2">
+        <v>25972</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44477</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="5"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="Y33" s="3"/>
+      <c r="AB33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AL33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>3521103123081</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44484</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="2">
+        <v>25626</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44482</v>
+      </c>
+      <c r="F34" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="5"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="Y34" s="3"/>
+      <c r="AB34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AL34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>3521103124842</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44484</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43084</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44483</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="L35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="5"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="Y35" s="3"/>
+      <c r="AB35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AL35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>3521103132310</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44485</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="2">
+        <v>32282</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44470</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="5"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="Y36" s="3"/>
+      <c r="AB36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AL36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>3521103177263</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44486</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="2">
+        <v>24615</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44484</v>
+      </c>
+      <c r="F37" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37" t="s">
+        <v>81</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="5"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="Y37" s="3"/>
+      <c r="AB37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AL37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>44486</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>3521103251164</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44487</v>
+      </c>
+      <c r="C38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="2">
+        <v>25460</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44479</v>
+      </c>
+      <c r="F38" t="s">
+        <v>147</v>
+      </c>
+      <c r="L38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="5"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="Y38" s="3"/>
+      <c r="AB38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AL38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3521103252454</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44487</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43687</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44484</v>
+      </c>
+      <c r="F39" t="s">
+        <v>149</v>
+      </c>
+      <c r="L39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="5"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="Y39" s="3"/>
+      <c r="AB39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AL39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>3521103261031</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44487</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="2">
+        <v>26008</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44486</v>
+      </c>
+      <c r="F40" t="s">
+        <v>151</v>
+      </c>
+      <c r="L40" t="s">
+        <v>81</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="5"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="Y40" s="3"/>
+      <c r="AB40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AL40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3521103284151</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44487</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="2">
+        <v>19497</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44435</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
+      </c>
+      <c r="L41" t="s">
+        <v>81</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="5"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="Y41" s="3"/>
+      <c r="AB41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AL41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>3521103289083</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44483</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="2">
+        <v>30047</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44481</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="L42" t="s">
+        <v>81</v>
+      </c>
+      <c r="M42" s="3"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="5"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="Y42" s="3"/>
+      <c r="AB42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AL42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>3521103451372</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44489</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="2">
+        <v>34210</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44485</v>
+      </c>
+      <c r="F43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43">
+        <v>2101864917</v>
+      </c>
+      <c r="H43" s="2">
+        <v>44490</v>
+      </c>
+      <c r="I43" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" s="3"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="5"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="Y43" s="3"/>
+      <c r="AB43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AL43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG43" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>3521103497781</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44489</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="2">
+        <v>34838</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44488</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+      <c r="L44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="3"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="5"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="Y44" s="3"/>
+      <c r="AB44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AL44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>3521103518230</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44490</v>
+      </c>
+      <c r="C45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="2">
+        <v>32763</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44475</v>
+      </c>
+      <c r="F45" t="s">
+        <v>116</v>
+      </c>
+      <c r="L45" t="s">
+        <v>81</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="5"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="Y45" s="3"/>
+      <c r="AB45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AL45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>3521103523884</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44490</v>
+      </c>
+      <c r="C46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="2">
+        <v>28495</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44486</v>
+      </c>
+      <c r="F46" t="s">
+        <v>161</v>
+      </c>
+      <c r="L46" t="s">
+        <v>81</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="5"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="Y46" s="3"/>
+      <c r="AB46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AL46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>3521103547098</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44490</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="2">
+        <v>33592</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44488</v>
+      </c>
+      <c r="F47" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47">
+        <v>2102736814</v>
+      </c>
+      <c r="H47" s="2">
+        <v>44490</v>
+      </c>
+      <c r="I47" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47" t="s">
+        <v>81</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="5"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="Y47" s="3"/>
+      <c r="AB47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AL47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF47" s="2">
+        <v>44567</v>
+      </c>
+      <c r="BG47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>3521103579138</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44490</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43084</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44487</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
+      </c>
+      <c r="L48" t="s">
+        <v>2</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="5"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="Y48" s="3"/>
+      <c r="AB48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AL48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>3521103580426</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44490</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="2">
+        <v>43819</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44489</v>
+      </c>
+      <c r="F49" t="s">
+        <v>168</v>
+      </c>
+      <c r="L49" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="5"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="Y49" s="3"/>
+      <c r="AB49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AL49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>3521103667024</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44491</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="2">
+        <v>37084</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F50" t="s">
+        <v>151</v>
+      </c>
+      <c r="L50" t="s">
+        <v>81</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="5"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="Y50" s="3"/>
+      <c r="AB50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AL50" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>3521103713373</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44491</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="2">
+        <v>36020</v>
+      </c>
+      <c r="E51" s="2">
+        <v>44487</v>
+      </c>
+      <c r="F51" t="s">
+        <v>171</v>
+      </c>
+      <c r="L51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="5"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="Y51" s="3"/>
+      <c r="AB51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AL51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>3521103743087</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44492</v>
+      </c>
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="2">
+        <v>30293</v>
+      </c>
+      <c r="E52" s="2">
+        <v>44477</v>
+      </c>
+      <c r="F52" t="s">
+        <v>173</v>
+      </c>
+      <c r="L52" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="5"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="Y52" s="3"/>
+      <c r="AB52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AL52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>3521103985204</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44495</v>
+      </c>
+      <c r="C53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="2">
+        <v>32454</v>
+      </c>
+      <c r="E53" s="2">
+        <v>44485</v>
+      </c>
+      <c r="F53" t="s">
+        <v>175</v>
+      </c>
+      <c r="L53" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="5"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="Y53" s="3"/>
+      <c r="AB53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AL53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>3521104076348</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44496</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="2">
+        <v>43756</v>
+      </c>
+      <c r="E54" s="2">
+        <v>44495</v>
+      </c>
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54">
+        <v>2102736715</v>
+      </c>
+      <c r="H54" s="2">
+        <v>44489</v>
+      </c>
+      <c r="I54" t="s">
+        <v>107</v>
+      </c>
+      <c r="L54" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="5"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="Y54" s="3"/>
+      <c r="AB54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AL54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>3521104098815</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44496</v>
+      </c>
+      <c r="C55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="2">
+        <v>36258</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44489</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+      <c r="L55" t="s">
+        <v>81</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="5"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="Y55" s="3"/>
+      <c r="AB55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AL55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3521104118543</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44497</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="2">
+        <v>29807</v>
+      </c>
+      <c r="E56" s="2">
+        <v>44495</v>
+      </c>
+      <c r="F56" t="s">
+        <v>180</v>
+      </c>
+      <c r="L56" t="s">
+        <v>81</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="5"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="Y56" s="3"/>
+      <c r="AB56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AL56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>3521104150546</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44497</v>
+      </c>
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="2">
+        <v>25341</v>
+      </c>
+      <c r="E57" s="2">
+        <v>44494</v>
+      </c>
+      <c r="F57" t="s">
+        <v>182</v>
+      </c>
+      <c r="L57" t="s">
+        <v>2</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="5"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="Y57" s="3"/>
+      <c r="AB57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AL57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>3521104196405</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44498</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="2">
+        <v>35683</v>
+      </c>
+      <c r="E58" s="2">
+        <v>44497</v>
+      </c>
+      <c r="F58" t="s">
+        <v>184</v>
+      </c>
+      <c r="L58" t="s">
+        <v>81</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="5"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="Y58" s="3"/>
+      <c r="AB58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AL58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>4</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>4321102412122</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44474</v>
+      </c>
+      <c r="C59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="2">
+        <v>32751</v>
+      </c>
+      <c r="E59" s="2">
+        <v>44473</v>
+      </c>
+      <c r="F59" t="s">
+        <v>186</v>
+      </c>
+      <c r="L59" t="s">
+        <v>81</v>
+      </c>
+      <c r="M59" s="3"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="5"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="Y59" s="3"/>
+      <c r="AB59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AL59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF59" s="2">
+        <v>44503</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:BI59"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>